--- a/test_files/filter_1_Code_list_three_extensions.xlsx
+++ b/test_files/filter_1_Code_list_three_extensions.xlsx
@@ -1,30 +1,351 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21723"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD93B210-CE11-450B-9219-4CC982B6D42C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="CodeSchemes" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Codes" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Extensions" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Members_1" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Members_2" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Members_3" sheetId="6" r:id="rId8"/>
+    <sheet name="CodeSchemes" sheetId="1" r:id="rId1"/>
+    <sheet name="Codes" sheetId="2" r:id="rId2"/>
+    <sheet name="Extensions" sheetId="3" r:id="rId3"/>
+    <sheet name="Members_1" sheetId="4" r:id="rId4"/>
+    <sheet name="Members_2" sheetId="5" r:id="rId5"/>
+    <sheet name="Members_3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="184">
   <si>
     <t>CODEVALUE</t>
   </si>
   <si>
+    <t>INFORMATIONDOMAIN</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>LEGALBASE</t>
+  </si>
+  <si>
+    <t>GOVERNANCEPOLICY</t>
+  </si>
+  <si>
+    <t>DEFAULTCODE</t>
+  </si>
+  <si>
+    <t>PREFLABEL_FI</t>
+  </si>
+  <si>
+    <t>PREFLABEL_EN</t>
+  </si>
+  <si>
+    <t>STARTDATE</t>
+  </si>
+  <si>
+    <t>ENDDATE</t>
+  </si>
+  <si>
+    <t>CREATED</t>
+  </si>
+  <si>
+    <t>MODIFIED</t>
+  </si>
+  <si>
+    <t>CODESSHEET</t>
+  </si>
+  <si>
+    <t>EXTENSIONSSHEET</t>
+  </si>
+  <si>
+    <t>P9;P1;P2</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>testcode06</t>
+  </si>
+  <si>
+    <t>Koodisto600</t>
+  </si>
+  <si>
+    <t>Code list 600</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2018-12-30</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>Extensions</t>
+  </si>
+  <si>
     <t>BROADER</t>
   </si>
   <si>
-    <t>STATUS</t>
+    <t>SHORTNAME</t>
+  </si>
+  <si>
+    <t>HIERARCHYLEVEL</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>testcode01</t>
+  </si>
+  <si>
+    <t>DRAFT</t>
+  </si>
+  <si>
+    <t>Testikoodi 01</t>
+  </si>
+  <si>
+    <t>Test code 01</t>
+  </si>
+  <si>
+    <t>testcode02</t>
+  </si>
+  <si>
+    <t>Testikoodi 02</t>
+  </si>
+  <si>
+    <t>Test code 02</t>
+  </si>
+  <si>
+    <t>testcode03</t>
+  </si>
+  <si>
+    <t>Testikoodi 03</t>
+  </si>
+  <si>
+    <t>Test code 03</t>
+  </si>
+  <si>
+    <t>testcode04</t>
+  </si>
+  <si>
+    <t>Testikoodi 04</t>
+  </si>
+  <si>
+    <t>Test code 04</t>
+  </si>
+  <si>
+    <t>testcode05</t>
+  </si>
+  <si>
+    <t>Testikoodi 05</t>
+  </si>
+  <si>
+    <t>Test code 05</t>
+  </si>
+  <si>
+    <t>Testikoodi 06</t>
+  </si>
+  <si>
+    <t>Test code 06</t>
+  </si>
+  <si>
+    <t>testcode07</t>
+  </si>
+  <si>
+    <t>Testikoodi 07</t>
+  </si>
+  <si>
+    <t>Test code 07</t>
+  </si>
+  <si>
+    <t>testcode08</t>
+  </si>
+  <si>
+    <t>Testikoodi 08</t>
+  </si>
+  <si>
+    <t>Test code 08</t>
+  </si>
+  <si>
+    <t>testcode09</t>
+  </si>
+  <si>
+    <t>Testikoodi 09</t>
+  </si>
+  <si>
+    <t>Test code 09</t>
+  </si>
+  <si>
+    <t>testcode10</t>
+  </si>
+  <si>
+    <t>Testikoodi 10</t>
+  </si>
+  <si>
+    <t>Test code 10</t>
+  </si>
+  <si>
+    <t>testcode11</t>
+  </si>
+  <si>
+    <t>Testikoodi 11</t>
+  </si>
+  <si>
+    <t>Test code 11</t>
+  </si>
+  <si>
+    <t>testcode12</t>
+  </si>
+  <si>
+    <t>Testikoodi 12</t>
+  </si>
+  <si>
+    <t>Test code 12</t>
+  </si>
+  <si>
+    <t>testcode13</t>
+  </si>
+  <si>
+    <t>Testikoodi 13</t>
+  </si>
+  <si>
+    <t>Test code 13</t>
+  </si>
+  <si>
+    <t>testcode14</t>
+  </si>
+  <si>
+    <t>Testikoodi 14</t>
+  </si>
+  <si>
+    <t>Test code 14</t>
+  </si>
+  <si>
+    <t>testcode15</t>
+  </si>
+  <si>
+    <t>Testikoodi 15</t>
+  </si>
+  <si>
+    <t>Test code 15</t>
+  </si>
+  <si>
+    <t>testcode16</t>
+  </si>
+  <si>
+    <t>Testikoodi 16</t>
+  </si>
+  <si>
+    <t>Test code 16</t>
+  </si>
+  <si>
+    <t>testcode17</t>
+  </si>
+  <si>
+    <t>Testikoodi 17</t>
+  </si>
+  <si>
+    <t>Test code 17</t>
+  </si>
+  <si>
+    <t>testcode18</t>
+  </si>
+  <si>
+    <t>Testikoodi 18</t>
+  </si>
+  <si>
+    <t>Test code 18</t>
+  </si>
+  <si>
+    <t>testcode19</t>
+  </si>
+  <si>
+    <t>Testikoodi 19</t>
+  </si>
+  <si>
+    <t>Test code 19</t>
+  </si>
+  <si>
+    <t>testcode20</t>
+  </si>
+  <si>
+    <t>Testikoodi 20</t>
+  </si>
+  <si>
+    <t>Test code 20</t>
+  </si>
+  <si>
+    <t>testcode21</t>
+  </si>
+  <si>
+    <t>Testikoodi 21</t>
+  </si>
+  <si>
+    <t>Test code 21</t>
+  </si>
+  <si>
+    <t>testcode22</t>
+  </si>
+  <si>
+    <t>Testikoodi 22</t>
+  </si>
+  <si>
+    <t>Test code 22</t>
+  </si>
+  <si>
+    <t>testcode23</t>
+  </si>
+  <si>
+    <t>Testikoodi 23</t>
+  </si>
+  <si>
+    <t>Test code 23</t>
+  </si>
+  <si>
+    <t>testcode24</t>
+  </si>
+  <si>
+    <t>Testikoodi 24</t>
+  </si>
+  <si>
+    <t>Test code 24</t>
+  </si>
+  <si>
+    <t>testcode25</t>
+  </si>
+  <si>
+    <t>Testikoodi 25</t>
+  </si>
+  <si>
+    <t>Test code 25</t>
   </si>
   <si>
     <t>PROPERTYTYPE</t>
@@ -33,105 +354,15 @@
     <t>CODESCHEMES</t>
   </si>
   <si>
-    <t>PREFLABEL_FI</t>
-  </si>
-  <si>
-    <t>INFORMATIONDOMAIN</t>
-  </si>
-  <si>
-    <t>PREFLABEL_EN</t>
-  </si>
-  <si>
-    <t>VERSION</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>STARTDATE</t>
-  </si>
-  <si>
-    <t>LEGALBASE</t>
-  </si>
-  <si>
-    <t>ENDDATE</t>
-  </si>
-  <si>
-    <t>SHORTNAME</t>
-  </si>
-  <si>
     <t>MEMBERSSHEET</t>
   </si>
   <si>
-    <t>HIERARCHYLEVEL</t>
-  </si>
-  <si>
-    <t>ORDER</t>
-  </si>
-  <si>
-    <t>testcode01</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>DRAFT</t>
-  </si>
-  <si>
-    <t>Testikoodi 01</t>
-  </si>
-  <si>
-    <t>GOVERNANCEPOLICY</t>
-  </si>
-  <si>
-    <t>Test code 01</t>
-  </si>
-  <si>
     <t>klm123</t>
   </si>
   <si>
-    <t>DEFAULTCODE</t>
-  </si>
-  <si>
-    <t>CREATED</t>
-  </si>
-  <si>
-    <t>MODIFIED</t>
-  </si>
-  <si>
-    <t>CODESSHEET</t>
-  </si>
-  <si>
-    <t>EXTENSIONSSHEET</t>
-  </si>
-  <si>
     <t>definitionHierarchy</t>
   </si>
   <si>
-    <t>P9;P1;P2</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>VALID</t>
-  </si>
-  <si>
-    <t>testcode06</t>
-  </si>
-  <si>
-    <t>Koodisto600</t>
-  </si>
-  <si>
-    <t>Code list 600</t>
-  </si>
-  <si>
-    <t>2016-12-31</t>
-  </si>
-  <si>
-    <t>2018-12-30</t>
-  </si>
-  <si>
     <t>Members_1</t>
   </si>
   <si>
@@ -150,304 +381,106 @@
     <t>crossReferenceList</t>
   </si>
   <si>
-    <t>testcode02</t>
-  </si>
-  <si>
-    <t>Testikoodi 02</t>
-  </si>
-  <si>
-    <t>Test code 02</t>
-  </si>
-  <si>
-    <t>testcode03</t>
-  </si>
-  <si>
-    <t>Testikoodi 03</t>
-  </si>
-  <si>
-    <t>Test code 03</t>
-  </si>
-  <si>
-    <t>testcode04</t>
-  </si>
-  <si>
-    <t>Testikoodi 04</t>
-  </si>
-  <si>
-    <t>Test code 04</t>
-  </si>
-  <si>
     <t>2018-12-31</t>
   </si>
   <si>
     <t>Members_3</t>
   </si>
   <si>
-    <t>testcode05</t>
-  </si>
-  <si>
-    <t>Testikoodi 05</t>
-  </si>
-  <si>
-    <t>Test code 05</t>
-  </si>
-  <si>
-    <t>Testikoodi 06</t>
-  </si>
-  <si>
-    <t>Test code 06</t>
-  </si>
-  <si>
-    <t>testcode07</t>
-  </si>
-  <si>
-    <t>Testikoodi 07</t>
-  </si>
-  <si>
-    <t>Test code 07</t>
-  </si>
-  <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>Extensions</t>
-  </si>
-  <si>
-    <t>testcode08</t>
-  </si>
-  <si>
-    <t>Testikoodi 08</t>
-  </si>
-  <si>
-    <t>Test code 08</t>
-  </si>
-  <si>
-    <t>testcode09</t>
-  </si>
-  <si>
-    <t>Testikoodi 09</t>
-  </si>
-  <si>
-    <t>Test code 09</t>
-  </si>
-  <si>
-    <t>testcode10</t>
-  </si>
-  <si>
-    <t>Testikoodi 10</t>
-  </si>
-  <si>
-    <t>Test code 10</t>
-  </si>
-  <si>
-    <t>testcode11</t>
-  </si>
-  <si>
-    <t>Testikoodi 11</t>
-  </si>
-  <si>
-    <t>Test code 11</t>
-  </si>
-  <si>
-    <t>testcode12</t>
-  </si>
-  <si>
-    <t>Testikoodi 12</t>
-  </si>
-  <si>
-    <t>Test code 12</t>
-  </si>
-  <si>
-    <t>testcode13</t>
-  </si>
-  <si>
-    <t>Testikoodi 13</t>
-  </si>
-  <si>
-    <t>Test code 13</t>
-  </si>
-  <si>
-    <t>testcode14</t>
-  </si>
-  <si>
-    <t>Testikoodi 14</t>
-  </si>
-  <si>
-    <t>Test code 14</t>
-  </si>
-  <si>
-    <t>testcode15</t>
-  </si>
-  <si>
-    <t>Testikoodi 15</t>
-  </si>
-  <si>
-    <t>Test code 15</t>
-  </si>
-  <si>
-    <t>testcode16</t>
-  </si>
-  <si>
-    <t>Testikoodi 16</t>
-  </si>
-  <si>
-    <t>Test code 16</t>
-  </si>
-  <si>
-    <t>testcode17</t>
-  </si>
-  <si>
-    <t>Testikoodi 17</t>
-  </si>
-  <si>
-    <t>Test code 17</t>
-  </si>
-  <si>
-    <t>testcode18</t>
-  </si>
-  <si>
-    <t>Testikoodi 18</t>
-  </si>
-  <si>
-    <t>Test code 18</t>
-  </si>
-  <si>
-    <t>testcode19</t>
-  </si>
-  <si>
-    <t>Testikoodi 19</t>
-  </si>
-  <si>
-    <t>Test code 19</t>
-  </si>
-  <si>
-    <t>testcode20</t>
-  </si>
-  <si>
-    <t>Testikoodi 20</t>
-  </si>
-  <si>
-    <t>Test code 20</t>
-  </si>
-  <si>
-    <t>testcode21</t>
-  </si>
-  <si>
-    <t>Testikoodi 21</t>
-  </si>
-  <si>
-    <t>Test code 21</t>
-  </si>
-  <si>
-    <t>testcode22</t>
-  </si>
-  <si>
-    <t>Testikoodi 22</t>
-  </si>
-  <si>
-    <t>Test code 22</t>
-  </si>
-  <si>
-    <t>testcode23</t>
-  </si>
-  <si>
-    <t>Testikoodi 23</t>
-  </si>
-  <si>
-    <t>Test code 23</t>
-  </si>
-  <si>
-    <t>testcode24</t>
-  </si>
-  <si>
-    <t>Testikoodi 24</t>
-  </si>
-  <si>
-    <t>Test code 24</t>
-  </si>
-  <si>
-    <t>testcode25</t>
-  </si>
-  <si>
-    <t>Testikoodi 25</t>
-  </si>
-  <si>
-    <t>Test code 25</t>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>RELATION</t>
+  </si>
+  <si>
+    <t>Jäsen1</t>
+  </si>
+  <si>
+    <t>Member1</t>
+  </si>
+  <si>
+    <t>Jäsen2</t>
+  </si>
+  <si>
+    <t>Member2</t>
+  </si>
+  <si>
+    <t>code:testcode01</t>
+  </si>
+  <si>
+    <t>Jäsen3</t>
+  </si>
+  <si>
+    <t>Member3</t>
+  </si>
+  <si>
+    <t>Jäsen4</t>
+  </si>
+  <si>
+    <t>Member4</t>
+  </si>
+  <si>
+    <t>Jäsen5</t>
+  </si>
+  <si>
+    <t>Member5</t>
+  </si>
+  <si>
+    <t>code:testcode04</t>
+  </si>
+  <si>
+    <t>Jäsen6</t>
+  </si>
+  <si>
+    <t>Member6</t>
+  </si>
+  <si>
+    <t>code:testcode05</t>
+  </si>
+  <si>
+    <t>Jäsen7</t>
+  </si>
+  <si>
+    <t>Member7</t>
+  </si>
+  <si>
+    <t>Jäsen8</t>
+  </si>
+  <si>
+    <t>Member8</t>
+  </si>
+  <si>
+    <t>Jäsen9</t>
+  </si>
+  <si>
+    <t>Member9</t>
   </si>
   <si>
     <t>UNARYOPERATOR</t>
   </si>
   <si>
-    <t>CODE</t>
-  </si>
-  <si>
     <t>COMPARISONOPERATOR</t>
   </si>
   <si>
-    <t>RELATION</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>&lt;=</t>
   </si>
   <si>
-    <t>Jäsen1</t>
-  </si>
-  <si>
-    <t>Member1</t>
-  </si>
-  <si>
-    <t>Jäsen2</t>
-  </si>
-  <si>
-    <t>Member2</t>
+    <t>code:testcode08</t>
+  </si>
+  <si>
+    <t>code:testcode09</t>
+  </si>
+  <si>
+    <t>code:testcode12</t>
+  </si>
+  <si>
+    <t>code:testcode13</t>
   </si>
   <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode01</t>
-  </si>
-  <si>
-    <t>Jäsen3</t>
-  </si>
-  <si>
-    <t>Member3</t>
-  </si>
-  <si>
-    <t>Jäsen4</t>
-  </si>
-  <si>
-    <t>Member4</t>
-  </si>
-  <si>
-    <t>Jäsen5</t>
-  </si>
-  <si>
-    <t>Member5</t>
-  </si>
-  <si>
-    <t>Jäsen6</t>
-  </si>
-  <si>
-    <t>Member6</t>
-  </si>
-  <si>
-    <t>Jäsen7</t>
-  </si>
-  <si>
-    <t>Member7</t>
-  </si>
-  <si>
-    <t>Jäsen8</t>
-  </si>
-  <si>
-    <t>Member8</t>
-  </si>
-  <si>
-    <t>Jäsen9</t>
-  </si>
-  <si>
-    <t>Member9</t>
   </si>
   <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode03</t>
@@ -552,30 +585,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -585,7 +621,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -595,206 +631,472 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.43"/>
-    <col customWidth="1" min="2" max="2" width="16.71"/>
-    <col customWidth="1" min="3" max="6" width="14.43"/>
-    <col customWidth="1" min="9" max="9" width="29.14"/>
-    <col customWidth="1" min="10" max="10" width="28.71"/>
-    <col customWidth="1" min="15" max="15" width="24.43"/>
-    <col customWidth="1" min="16" max="16" width="29.57"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="6" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" customWidth="1"/>
+    <col min="16" max="16" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
+        <v>600</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
-        <v>600.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1780,763 +2082,764 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="14.43"/>
-    <col customWidth="1" min="5" max="5" width="20.29"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
+    <col min="1" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="4">
-        <v>43101.0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>43831.0</v>
+      <c r="I2" s="3">
+        <v>43101</v>
+      </c>
+      <c r="J2" s="3">
+        <v>43831</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="4">
-        <v>43102.0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>43832.0</v>
+      <c r="I3" s="3">
+        <v>43102</v>
+      </c>
+      <c r="J3" s="3">
+        <v>43832</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="4">
-        <v>43103.0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>43833.0</v>
+      <c r="I4" s="3">
+        <v>43103</v>
+      </c>
+      <c r="J4" s="3">
+        <v>43833</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="4">
-        <v>43104.0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>43834.0</v>
+      <c r="I5" s="3">
+        <v>43104</v>
+      </c>
+      <c r="J5" s="3">
+        <v>43834</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="4">
-        <v>43105.0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>43835.0</v>
+      <c r="I6" s="3">
+        <v>43105</v>
+      </c>
+      <c r="J6" s="3">
+        <v>43835</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="4">
-        <v>43106.0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>43836.0</v>
+      <c r="I7" s="3">
+        <v>43106</v>
+      </c>
+      <c r="J7" s="3">
+        <v>43836</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="4">
-        <v>43107.0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>43837.0</v>
+      <c r="I8" s="3">
+        <v>43107</v>
+      </c>
+      <c r="J8" s="3">
+        <v>43837</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="4">
-        <v>43108.0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>43838.0</v>
+      <c r="I9" s="3">
+        <v>43108</v>
+      </c>
+      <c r="J9" s="3">
+        <v>43838</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="4">
-        <v>43109.0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>43839.0</v>
+      <c r="I10" s="3">
+        <v>43109</v>
+      </c>
+      <c r="J10" s="3">
+        <v>43839</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="4">
-        <v>43110.0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>43840.0</v>
+      <c r="I11" s="3">
+        <v>43110</v>
+      </c>
+      <c r="J11" s="3">
+        <v>43840</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="4">
-        <v>43111.0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>43841.0</v>
+      <c r="I12" s="3">
+        <v>43111</v>
+      </c>
+      <c r="J12" s="3">
+        <v>43841</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="4">
-        <v>43112.0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>43842.0</v>
+      <c r="I13" s="3">
+        <v>43112</v>
+      </c>
+      <c r="J13" s="3">
+        <v>43842</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="4">
-        <v>43113.0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>43843.0</v>
+      <c r="I14" s="3">
+        <v>43113</v>
+      </c>
+      <c r="J14" s="3">
+        <v>43843</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="4">
-        <v>43114.0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>43844.0</v>
+      <c r="I15" s="3">
+        <v>43114</v>
+      </c>
+      <c r="J15" s="3">
+        <v>43844</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="4">
-        <v>43115.0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>43845.0</v>
+      <c r="I16" s="3">
+        <v>43115</v>
+      </c>
+      <c r="J16" s="3">
+        <v>43845</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="4">
-        <v>43116.0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>43846.0</v>
+      <c r="I17" s="3">
+        <v>43116</v>
+      </c>
+      <c r="J17" s="3">
+        <v>43846</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="4">
-        <v>43117.0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>43847.0</v>
+      <c r="I18" s="3">
+        <v>43117</v>
+      </c>
+      <c r="J18" s="3">
+        <v>43847</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="4">
-        <v>43118.0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>43848.0</v>
+      <c r="I19" s="3">
+        <v>43118</v>
+      </c>
+      <c r="J19" s="3">
+        <v>43848</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="4">
-        <v>43119.0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>43849.0</v>
+      <c r="I20" s="3">
+        <v>43119</v>
+      </c>
+      <c r="J20" s="3">
+        <v>43849</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="4">
-        <v>43120.0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>43850.0</v>
+      <c r="I21" s="3">
+        <v>43120</v>
+      </c>
+      <c r="J21" s="3">
+        <v>43850</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="4">
-        <v>43121.0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>43851.0</v>
+      <c r="I22" s="3">
+        <v>43121</v>
+      </c>
+      <c r="J22" s="3">
+        <v>43851</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="4">
-        <v>43122.0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>43852.0</v>
+      <c r="I23" s="3">
+        <v>43122</v>
+      </c>
+      <c r="J23" s="3">
+        <v>43852</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="4">
-        <v>43123.0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>43853.0</v>
+      <c r="I24" s="3">
+        <v>43123</v>
+      </c>
+      <c r="J24" s="3">
+        <v>43853</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="4">
-        <v>43124.0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>43854.0</v>
+      <c r="I25" s="3">
+        <v>43124</v>
+      </c>
+      <c r="J25" s="3">
+        <v>43854</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="4">
-        <v>43125.0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>43855.0</v>
+      <c r="I26" s="3">
+        <v>43125</v>
+      </c>
+      <c r="J26" s="3">
+        <v>43855</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3506,136 +3809,137 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.71"/>
-    <col customWidth="1" min="2" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="29.14"/>
-    <col customWidth="1" min="4" max="4" width="35.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="19.71"/>
-    <col customWidth="1" min="9" max="9" width="32.86"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="6">
-        <v>42735.0</v>
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="4">
+        <v>42735</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -4621,234 +4925,237 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="52.43"/>
-    <col customWidth="1" min="2" max="6" width="14.43"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1"/>
+    <col min="2" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3">
+        <v>43101</v>
+      </c>
+      <c r="G2" s="3">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="3">
+        <v>43102</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="4">
-        <v>43101.0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>43831.0</v>
+      <c r="C4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3">
+        <v>43103</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43833</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3">
+        <v>43104</v>
+      </c>
+      <c r="G5" s="3">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="4">
-        <v>43102.0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>43832.0</v>
+      <c r="B6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3">
+        <v>43105</v>
+      </c>
+      <c r="G6" s="3">
+        <v>43835</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4">
-        <v>43103.0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>43833.0</v>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3">
+        <v>43106</v>
+      </c>
+      <c r="G7" s="3">
+        <v>43836</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="4">
-        <v>43104.0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>43834.0</v>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3">
+        <v>43107</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43837</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3">
+        <v>43108</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4">
-        <v>43105.0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>43835.0</v>
+      <c r="B10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3">
+        <v>43109</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43839</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4">
-        <v>43106.0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>43836.0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4">
-        <v>43107.0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>43837.0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="4">
-        <v>43108.0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>43838.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="4">
-        <v>43109.0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>43839.0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5834,295 +6141,298 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="14.43"/>
+    <col min="1" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3">
+        <v>43101</v>
+      </c>
+      <c r="I2" s="3">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3">
+        <v>43102</v>
+      </c>
+      <c r="I3" s="3">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="4">
-        <v>43101.0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>43831.0</v>
+      <c r="E4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3">
+        <v>43103</v>
+      </c>
+      <c r="I4" s="3">
+        <v>43833</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="4">
-        <v>43102.0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>43832.0</v>
+      <c r="E5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3">
+        <v>43104</v>
+      </c>
+      <c r="I5" s="3">
+        <v>43834</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="4">
-        <v>43103.0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>43833.0</v>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3">
+        <v>43105</v>
+      </c>
+      <c r="I6" s="3">
+        <v>43835</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4">
-        <v>43104.0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>43834.0</v>
+      <c r="E7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3">
+        <v>43106</v>
+      </c>
+      <c r="I7" s="3">
+        <v>43836</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="4">
-        <v>43105.0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>43835.0</v>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3">
+        <v>43107</v>
+      </c>
+      <c r="I8" s="3">
+        <v>43837</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="4">
-        <v>43106.0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>43836.0</v>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3">
+        <v>43108</v>
+      </c>
+      <c r="I9" s="3">
+        <v>43838</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="4">
-        <v>43107.0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>43837.0</v>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3">
+        <v>43109</v>
+      </c>
+      <c r="I10" s="3">
+        <v>43839</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="4">
-        <v>43108.0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>43838.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="4">
-        <v>43109.0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>43839.0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -7108,503 +7418,504 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="52.57"/>
-    <col customWidth="1" min="2" max="2" width="22.29"/>
-    <col customWidth="1" min="3" max="3" width="27.86"/>
-    <col customWidth="1" min="4" max="4" width="60.14"/>
+    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3">
+        <v>43101</v>
+      </c>
+      <c r="G2" s="3">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3">
+        <v>43102</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="4">
-        <v>43101.0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>43831.0</v>
+      <c r="C4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3">
+        <v>43103</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43833</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3">
+        <v>43104</v>
+      </c>
+      <c r="G5" s="3">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="4">
-        <v>43102.0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>43832.0</v>
+      <c r="B6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3">
+        <v>43105</v>
+      </c>
+      <c r="G6" s="3">
+        <v>43835</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4">
-        <v>43103.0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>43833.0</v>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3">
+        <v>43106</v>
+      </c>
+      <c r="G7" s="3">
+        <v>43836</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="4">
-        <v>43104.0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>43834.0</v>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3">
+        <v>43107</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43837</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3">
+        <v>43108</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4">
-        <v>43105.0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>43835.0</v>
+      <c r="B10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3">
+        <v>43109</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43839</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4">
-        <v>43106.0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>43836.0</v>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="3">
+        <v>43110</v>
+      </c>
+      <c r="G11" s="3">
+        <v>43840</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4">
-        <v>43107.0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>43837.0</v>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="3">
+        <v>43111</v>
+      </c>
+      <c r="G12" s="3">
+        <v>43841</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="4">
-        <v>43108.0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>43838.0</v>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="3">
+        <v>43112</v>
+      </c>
+      <c r="G13" s="3">
+        <v>43842</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="4">
-        <v>43109.0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>43839.0</v>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="3">
+        <v>43113</v>
+      </c>
+      <c r="G14" s="3">
+        <v>43843</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="4">
-        <v>43110.0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>43840.0</v>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="3">
+        <v>43114</v>
+      </c>
+      <c r="G15" s="3">
+        <v>43844</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="4">
-        <v>43111.0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>43841.0</v>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="3">
+        <v>43115</v>
+      </c>
+      <c r="G16" s="3">
+        <v>43845</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="4">
-        <v>43112.0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>43842.0</v>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="3">
+        <v>43116</v>
+      </c>
+      <c r="G17" s="3">
+        <v>43846</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="4">
-        <v>43113.0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>43843.0</v>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="3">
+        <v>43117</v>
+      </c>
+      <c r="G18" s="3">
+        <v>43847</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="4">
-        <v>43114.0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>43844.0</v>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="3">
+        <v>43118</v>
+      </c>
+      <c r="G19" s="3">
+        <v>43848</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="4">
-        <v>43115.0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>43845.0</v>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="3">
+        <v>43119</v>
+      </c>
+      <c r="G20" s="3">
+        <v>43849</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="4">
-        <v>43116.0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>43846.0</v>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="3">
+        <v>43120</v>
+      </c>
+      <c r="G21" s="3">
+        <v>43850</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="4">
-        <v>43117.0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>43847.0</v>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="3">
+        <v>43121</v>
+      </c>
+      <c r="G22" s="3">
+        <v>43851</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="4">
-        <v>43118.0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>43848.0</v>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="3">
+        <v>43122</v>
+      </c>
+      <c r="G23" s="3">
+        <v>43852</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="4">
-        <v>43119.0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>43849.0</v>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="3">
+        <v>43123</v>
+      </c>
+      <c r="G24" s="3">
+        <v>43853</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="4">
-        <v>43120.0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>43850.0</v>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="3">
+        <v>43124</v>
+      </c>
+      <c r="G25" s="3">
+        <v>43854</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="4">
-        <v>43121.0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>43851.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="4">
-        <v>43122.0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>43852.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="4">
-        <v>43123.0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>43853.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F25" s="4">
-        <v>43124.0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>43854.0</v>
-      </c>
-    </row>
-    <row r="26">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F26" s="4">
-        <v>43125.0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>43855.0</v>
+        <v>183</v>
+      </c>
+      <c r="F26" s="3">
+        <v>43125</v>
+      </c>
+      <c r="G26" s="3">
+        <v>43855</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3"/>
-    <hyperlink r:id="rId2" ref="D5"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
--- a/test_files/filter_1_Code_list_three_extensions.xlsx
+++ b/test_files/filter_1_Code_list_three_extensions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21803"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD93B210-CE11-450B-9219-4CC982B6D42C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B34A30D1-9630-4AEC-AAA2-8493570C1DB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeSchemes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="185">
   <si>
     <t>CODEVALUE</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>Test code 25</t>
+  </si>
+  <si>
+    <t>RTT555</t>
   </si>
   <si>
     <t>PROPERTYTYPE</t>
@@ -974,7 +977,7 @@
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2093,7 +2096,9 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2834,7 +2839,20 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="3">
+        <v>43126</v>
+      </c>
+      <c r="J27" s="3">
+        <v>43856</v>
+      </c>
+    </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="30" spans="1:10" ht="15.75" customHeight="1"/>
@@ -3820,7 +3838,7 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3841,10 +3859,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -3859,18 +3877,18 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
@@ -3882,18 +3900,18 @@
         <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -3905,27 +3923,27 @@
         <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G4" s="4">
         <v>42735</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1"/>
@@ -4936,7 +4954,7 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4948,7 +4966,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -4957,7 +4975,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -4974,10 +4992,10 @@
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -4995,13 +5013,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="3">
@@ -5016,13 +5034,13 @@
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="3">
@@ -5037,10 +5055,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="5"/>
@@ -5056,13 +5074,13 @@
         <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="3">
@@ -5077,13 +5095,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="3">
@@ -5098,10 +5116,10 @@
         <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="5"/>
@@ -5117,10 +5135,10 @@
         <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="5"/>
@@ -5136,10 +5154,10 @@
         <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
@@ -6152,7 +6170,7 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -6163,13 +6181,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -6178,7 +6196,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -6192,19 +6210,19 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
@@ -6219,22 +6237,22 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="3">
@@ -6246,22 +6264,22 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3">
@@ -6273,19 +6291,19 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5"/>
@@ -6298,19 +6316,19 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="5"/>
@@ -6323,22 +6341,22 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="3">
@@ -6350,22 +6368,22 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="3">
@@ -6377,22 +6395,22 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3">
@@ -6404,19 +6422,19 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="5"/>
@@ -7429,7 +7447,7 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7441,7 +7459,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -7450,7 +7468,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -7467,10 +7485,10 @@
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -7488,13 +7506,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="3">
@@ -7509,10 +7527,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="5"/>
@@ -7528,13 +7546,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="3">
@@ -7549,10 +7567,10 @@
         <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
@@ -7568,10 +7586,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5"/>
@@ -7587,10 +7605,10 @@
         <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="5"/>
@@ -7606,10 +7624,10 @@
         <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="5"/>
@@ -7625,10 +7643,10 @@
         <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
@@ -7644,10 +7662,10 @@
         <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F11" s="3">
         <v>43110</v>
@@ -7661,10 +7679,10 @@
         <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F12" s="3">
         <v>43111</v>
@@ -7678,10 +7696,10 @@
         <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F13" s="3">
         <v>43112</v>
@@ -7695,10 +7713,10 @@
         <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F14" s="3">
         <v>43113</v>
@@ -7712,10 +7730,10 @@
         <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F15" s="3">
         <v>43114</v>
@@ -7729,10 +7747,10 @@
         <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F16" s="3">
         <v>43115</v>
@@ -7746,10 +7764,10 @@
         <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F17" s="3">
         <v>43116</v>
@@ -7763,10 +7781,10 @@
         <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F18" s="3">
         <v>43117</v>
@@ -7780,10 +7798,10 @@
         <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F19" s="3">
         <v>43118</v>
@@ -7797,10 +7815,10 @@
         <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F20" s="3">
         <v>43119</v>
@@ -7814,10 +7832,10 @@
         <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F21" s="3">
         <v>43120</v>
@@ -7831,10 +7849,10 @@
         <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F22" s="3">
         <v>43121</v>
@@ -7848,10 +7866,10 @@
         <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F23" s="3">
         <v>43122</v>
@@ -7865,10 +7883,10 @@
         <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F24" s="3">
         <v>43123</v>
@@ -7882,10 +7900,10 @@
         <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F25" s="3">
         <v>43124</v>
@@ -7899,10 +7917,10 @@
         <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F26" s="3">
         <v>43125</v>
